--- a/pages/template/format_siswa.xlsx
+++ b/pages/template/format_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA77A3F-D71D-4225-B267-0D75AAC7C9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74260FA5-C447-4119-8120-E9CAB05ACC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{7277EE11-8C52-46B7-812B-2459BD2DC0FD}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>NIS</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>Tanggal Lahir *)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Indramayu</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>Angga Dwi Saputra</t>
+  </si>
+  <si>
+    <t>Dewi Septia Acha</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Cirebon</t>
+  </si>
+  <si>
+    <t>2000-05-19</t>
+  </si>
+  <si>
+    <t>Mahfudin Obito</t>
+  </si>
+  <si>
+    <t>Klaten</t>
+  </si>
+  <si>
+    <t>2010-03-03</t>
   </si>
 </sst>
 </file>
@@ -187,11 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,14 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E465FF0A-A15E-4AA1-888B-5B5ECFCE38F2}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -555,6 +590,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
